--- a/data/merged_metu_ring.xlsx
+++ b/data/merged_metu_ring.xlsx
@@ -628,7 +628,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>East Dorms/Guesthouses (1st Dorm, 2nd Dorm, 16th Guesthouse, etc.)</t>
+          <t>East Dorms (1st Dorm, 2nd Dorm, 16th Guesthouse, etc.)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Dissatisfied</t>
+          <t>Unsatisfied</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Very dissatisfied</t>
+          <t>Very Unsatisfied</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>West Dorms/Guesthouses (Isa Demiray Dormitory, 19th Dorm, etc.)</t>
+          <t>West Dorms (Isa Demiray Student Dormitory, 19th Dorm, etc.)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Late (19:00–23:00)</t>
+          <t>Late hours (19:00–23:00)</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>Fastest</t>
+          <t>Fastest transportation method</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>West Dorms/Guesthouses (Isa Demiray Dormitory, 19th Dorm, etc.)</t>
+          <t>West Dorms (Isa Demiray Student Dormitory, 19th Dorm, etc.)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Dissatisfied</t>
+          <t>Unsatisfied</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Dissatisfied</t>
+          <t>Unsatisfied</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>West Dorms/Guesthouses (Isa Demiray Dormitory, 19th Dorm, etc.)</t>
+          <t>West Dorms (Isa Demiray Student Dormitory, 19th Dorm, etc.)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1191,12 +1191,12 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Midday (11:00–15:00)</t>
+          <t>Noon (11:00–15:00)</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Dissatisfied</t>
+          <t>Unsatisfied</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Late (19:00–23:00)</t>
+          <t>Late hours (19:00–23:00)</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>It's free</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>West Dorms/Guesthouses (Isa Demiray Dormitory, 19th Dorm, etc.)</t>
+          <t>West Dorms (Isa Demiray Student Dormitory, 19th Dorm, etc.)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1530,7 +1530,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Dissatisfied</t>
+          <t>Unsatisfied</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>East Dorms/Guesthouses (1st Dorm, 2nd Dorm, 16th Guesthouse, etc.)</t>
+          <t>East Dorms (1st Dorm, 2nd Dorm, 16th Guesthouse, etc.)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1687,7 +1687,7 @@
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Dissatisfied</t>
+          <t>Unsatisfied</t>
         </is>
       </c>
       <c r="S8" t="inlineStr"/>
@@ -1754,7 +1754,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>East Dorms/Guesthouses (1st Dorm, 2nd Dorm, 16th Guesthouse, etc.)</t>
+          <t>East Dorms (1st Dorm, 2nd Dorm, 16th Guesthouse, etc.)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1822,7 +1822,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Dissatisfied</t>
+          <t>Unsatisfied</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1924,7 +1924,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2063,7 +2063,7 @@
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>Daha dakik seferler</t>
+          <t>Improved punctuality</t>
         </is>
       </c>
       <c r="AI10" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2142,7 +2142,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Never use it</t>
+          <t>Never</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -2249,7 +2249,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>East Dorms/Guesthouses (1st Dorm, 2nd Dorm, 16th Guesthouse, etc.)</t>
+          <t>East Dorms (1st Dorm, 2nd Dorm, 16th Guesthouse, etc.)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2312,12 +2312,12 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Late (19:00–23:00)</t>
+          <t>Late hours (19:00–23:00)</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Very dissatisfied</t>
+          <t>Very Unsatisfied</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>Most convenient</t>
+          <t>Most convenient transportation method</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2472,7 +2472,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2749,7 +2749,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -2802,7 +2802,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Never use it</t>
+          <t>Never</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr"/>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -3043,7 +3043,7 @@
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>Daha uzun hizmet saatleri</t>
+          <t>Extended service hours</t>
         </is>
       </c>
       <c r="AI16" t="n">
@@ -3069,7 +3069,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -3107,7 +3107,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -3122,7 +3122,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -3234,7 +3234,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -3272,7 +3272,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -3356,7 +3356,7 @@
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>20 dakikadan fazla</t>
+          <t>More than 20 minutes</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
@@ -3378,7 +3378,7 @@
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>Sosyoloji</t>
+          <t>Sociology</t>
         </is>
       </c>
     </row>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -3564,7 +3564,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -3602,7 +3602,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -3703,7 +3703,7 @@
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>Daha uzun hizmet saatleri</t>
+          <t>Extended service hours</t>
         </is>
       </c>
       <c r="AI20" t="n">
@@ -3729,7 +3729,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -3868,7 +3868,7 @@
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>Daha uzun hizmet saatleri</t>
+          <t>Extended service hours</t>
         </is>
       </c>
       <c r="AI21" t="n">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -3932,7 +3932,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Haftada 1–2 kez</t>
+          <t>1–2 times a week</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -3947,7 +3947,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -4059,7 +4059,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4112,7 +4112,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr"/>
@@ -4220,7 +4220,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -4346,7 +4346,7 @@
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>20 dakikadan fazla</t>
+          <t>More than 20 minutes</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
@@ -4389,7 +4389,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -4427,7 +4427,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -4554,7 +4554,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -4592,7 +4592,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -4607,7 +4607,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Never use it</t>
+          <t>Never</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr"/>
@@ -4715,7 +4715,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -4854,7 +4854,7 @@
       </c>
       <c r="AH27" t="inlineStr">
         <is>
-          <t>Daha uzun hizmet saatleri</t>
+          <t>Extended service hours</t>
         </is>
       </c>
       <c r="AI27" t="n">
@@ -4880,7 +4880,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -4918,7 +4918,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -5049,7 +5049,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -5087,7 +5087,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Haftada 1–2 kez</t>
+          <t>1–2 times a week</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -5097,7 +5097,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>Highly Satisfied</t>
+          <t>Very Satisfied</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -5175,7 +5175,7 @@
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>5 dakikadan az</t>
+          <t>Less than 5 minutes</t>
         </is>
       </c>
       <c r="AF29" t="inlineStr">
@@ -5188,7 +5188,7 @@
       </c>
       <c r="AH29" t="inlineStr">
         <is>
-          <t>Daha uzun hizmet saatleri</t>
+          <t>Extended service hours</t>
         </is>
       </c>
       <c r="AI29" t="n">
@@ -5218,7 +5218,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -5256,7 +5256,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -5379,7 +5379,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -5539,7 +5539,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>East Dorms/Guesthouses (1st Dorm, 2nd Dorm, 16th Guesthouse, etc.)</t>
+          <t>East Dorms (1st Dorm, 2nd Dorm, 16th Guesthouse, etc.)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -5709,7 +5709,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -5878,7 +5878,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -6043,7 +6043,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -6208,7 +6208,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -6377,7 +6377,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -6430,7 +6430,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
@@ -6542,7 +6542,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -6580,7 +6580,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Haftada 1–2 kez</t>
+          <t>1–2 times a week</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -6668,7 +6668,7 @@
       </c>
       <c r="AE38" t="inlineStr">
         <is>
-          <t>20 dakikadan fazla</t>
+          <t>More than 20 minutes</t>
         </is>
       </c>
       <c r="AF38" t="inlineStr">
@@ -6681,7 +6681,7 @@
       </c>
       <c r="AH38" t="inlineStr">
         <is>
-          <t>Daha uzun hizmet saatleri</t>
+          <t>Extended service hours</t>
         </is>
       </c>
       <c r="AI38" t="n">
@@ -6711,7 +6711,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -6859,7 +6859,7 @@
       <c r="AJ39" t="inlineStr"/>
       <c r="AK39" t="inlineStr">
         <is>
-          <t>Psikoloji</t>
+          <t>Psychology</t>
         </is>
       </c>
     </row>
@@ -6871,7 +6871,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>East Dorms/Guesthouses (1st Dorm, 2nd Dorm, 16th Guesthouse, etc.)</t>
+          <t>East Dorms (1st Dorm, 2nd Dorm, 16th Guesthouse, etc.)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -7041,7 +7041,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -7079,7 +7079,7 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -7206,7 +7206,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -7345,7 +7345,7 @@
       </c>
       <c r="AH42" t="inlineStr">
         <is>
-          <t>Daha uzun hizmet saatleri</t>
+          <t>Extended service hours</t>
         </is>
       </c>
       <c r="AI42" t="n">
@@ -7377,7 +7377,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -7542,7 +7542,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -7707,7 +7707,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -7745,7 +7745,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -7842,7 +7842,7 @@
       </c>
       <c r="AH45" t="inlineStr">
         <is>
-          <t>Daha uzun hizmet saatleri</t>
+          <t>Extended service hours</t>
         </is>
       </c>
       <c r="AI45" t="n">
@@ -7855,7 +7855,7 @@
       </c>
       <c r="AK45" t="inlineStr">
         <is>
-          <t>Fizik</t>
+          <t>Physics</t>
         </is>
       </c>
     </row>
@@ -7872,7 +7872,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -7910,7 +7910,7 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -7925,7 +7925,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
@@ -8037,7 +8037,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -8201,7 +8201,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>East Dorms/Guesthouses (1st Dorm, 2nd Dorm, 16th Guesthouse, etc.)</t>
+          <t>East Dorms (1st Dorm, 2nd Dorm, 16th Guesthouse, etc.)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -8264,7 +8264,7 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>Late (19:00–23:00)</t>
+          <t>Late hours (19:00–23:00)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
@@ -8375,7 +8375,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -8514,7 +8514,7 @@
       </c>
       <c r="AH49" t="inlineStr">
         <is>
-          <t>Daha dakik seferler</t>
+          <t>Improved punctuality</t>
         </is>
       </c>
       <c r="AI49" t="n">
@@ -8523,7 +8523,7 @@
       <c r="AJ49" t="inlineStr"/>
       <c r="AK49" t="inlineStr">
         <is>
-          <t>Biyoloji</t>
+          <t>Biology</t>
         </is>
       </c>
     </row>
@@ -8540,7 +8540,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -8578,7 +8578,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>Haftada 1–2 kez</t>
+          <t>1–2 times a week</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -8593,7 +8593,7 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
@@ -8700,7 +8700,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Off-campus (farther away)</t>
+          <t>Off-campus (far from campus)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -8753,7 +8753,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>Dissatisfied</t>
+          <t>Unsatisfied</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -8763,12 +8763,12 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>Evening (15:00–19:00)</t>
+          <t>Afternoon (15:00–19:00)</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Very dissatisfied</t>
+          <t>Very Unsatisfied</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -8783,7 +8783,7 @@
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>Fastest</t>
+          <t>Fastest transportation method</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
@@ -8870,7 +8870,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -8923,7 +8923,7 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
@@ -9030,7 +9030,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Off-campus (farther away)</t>
+          <t>Off-campus (far from campus)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -9098,7 +9098,7 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Dissatisfied</t>
+          <t>Unsatisfied</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -9113,7 +9113,7 @@
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>Most convenient</t>
+          <t>Most convenient transportation method</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
@@ -9200,7 +9200,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -9253,7 +9253,7 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
@@ -9369,7 +9369,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -9495,7 +9495,7 @@
       </c>
       <c r="AE55" t="inlineStr">
         <is>
-          <t>20 dakikadan fazla</t>
+          <t>More than 20 minutes</t>
         </is>
       </c>
       <c r="AF55" t="inlineStr">
@@ -9508,7 +9508,7 @@
       </c>
       <c r="AH55" t="inlineStr">
         <is>
-          <t>Daha dakik seferler</t>
+          <t>Improved punctuality</t>
         </is>
       </c>
       <c r="AI55" t="n">
@@ -9534,7 +9534,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -9582,12 +9582,12 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>Highly Satisfied</t>
+          <t>Very Satisfied</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
@@ -9660,7 +9660,7 @@
       </c>
       <c r="AE56" t="inlineStr">
         <is>
-          <t>5 dakikadan az</t>
+          <t>Less than 5 minutes</t>
         </is>
       </c>
       <c r="AF56" t="inlineStr">
@@ -9704,7 +9704,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -9742,7 +9742,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -9873,7 +9873,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -9999,7 +9999,7 @@
       </c>
       <c r="AE58" t="inlineStr">
         <is>
-          <t>20 dakikadan fazla</t>
+          <t>More than 20 minutes</t>
         </is>
       </c>
       <c r="AF58" t="inlineStr">
@@ -10038,7 +10038,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -10207,7 +10207,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -10376,7 +10376,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -10541,7 +10541,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -10579,7 +10579,7 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>Haftada 1–2 kez</t>
+          <t>1–2 times a week</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -10594,7 +10594,7 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr"/>
@@ -10676,7 +10676,7 @@
       </c>
       <c r="AH62" t="inlineStr">
         <is>
-          <t>Daha uzun hizmet saatleri</t>
+          <t>Extended service hours</t>
         </is>
       </c>
       <c r="AI62" t="n">
@@ -10702,7 +10702,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -10867,7 +10867,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -10993,7 +10993,7 @@
       </c>
       <c r="AE64" t="inlineStr">
         <is>
-          <t>20 dakikadan fazla</t>
+          <t>More than 20 minutes</t>
         </is>
       </c>
       <c r="AF64" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -11085,7 +11085,7 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
@@ -11197,7 +11197,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -11250,7 +11250,7 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
@@ -11336,7 +11336,7 @@
       </c>
       <c r="AH66" t="inlineStr">
         <is>
-          <t>Daha uzun hizmet saatleri</t>
+          <t>Extended service hours</t>
         </is>
       </c>
       <c r="AI66" t="n">
@@ -11357,7 +11357,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Off-campus (farther away)</t>
+          <t>Off-campus (far from campus)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -11405,7 +11405,7 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Late evening (19:00-23:00)</t>
+          <t>Late hours (19:00–23:00)</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
@@ -11436,7 +11436,7 @@
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>No private car</t>
+          <t>I don't have a personal vehicle</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
@@ -11518,7 +11518,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>West Dorms/Guesthouses (Isa Demiray Dormitory, 19th Dorm, etc.)</t>
+          <t>West Dorms (Isa Demiray Student Dormitory, 19th Dorm, etc.)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -11586,7 +11586,7 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>Dissatisfied</t>
+          <t>Unsatisfied</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
@@ -11683,7 +11683,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>West Dorms/Guesthouses (Isa Demiray Dormitory, 19th Dorm, etc.)</t>
+          <t>West Dorms (Isa Demiray Student Dormitory, 19th Dorm, etc.)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -11746,12 +11746,12 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>Late (19:00–23:00)</t>
+          <t>Late hours (19:00–23:00)</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Dissatisfied</t>
+          <t>Unsatisfied</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
@@ -11853,7 +11853,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -11891,7 +11891,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>Haftada 1–2 kez</t>
+          <t>1–2 times a week</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -11906,7 +11906,7 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
@@ -12144,7 +12144,7 @@
       </c>
       <c r="AE71" t="inlineStr">
         <is>
-          <t>20 dakikadan fazla</t>
+          <t>More than 20 minutes</t>
         </is>
       </c>
       <c r="AF71" t="inlineStr">
@@ -12179,7 +12179,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
@@ -12348,7 +12348,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -12401,7 +12401,7 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Never use it</t>
+          <t>Never</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr"/>
@@ -12505,7 +12505,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -12674,7 +12674,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -12838,12 +12838,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>East Dorms/Guesthouses (1st Dorm, 2nd Dorm, 16th Guesthouse, etc.)</t>
+          <t>East Dorms (1st Dorm, 2nd Dorm, 16th Guesthouse, etc.)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>PhD (Doctoral)</t>
+          <t>PhD</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
@@ -12891,7 +12891,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>Dissatisfied</t>
+          <t>Unsatisfied</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
@@ -12901,7 +12901,7 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>Midday (11:00–15:00)</t>
+          <t>Noon (11:00–15:00)</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
@@ -12921,7 +12921,7 @@
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>Fastest</t>
+          <t>Fastest transportation method</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
@@ -12999,7 +12999,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>West Dorms/Guesthouses (Isa Demiray Dormitory, 19th Dorm, etc.)</t>
+          <t>West Dorms (Isa Demiray Student Dormitory, 19th Dorm, etc.)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -13052,7 +13052,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>Dissatisfied</t>
+          <t>Unsatisfied</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
@@ -13169,7 +13169,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -13222,7 +13222,7 @@
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
@@ -13334,7 +13334,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -13387,7 +13387,7 @@
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
@@ -13473,7 +13473,7 @@
       </c>
       <c r="AH79" t="inlineStr">
         <is>
-          <t>Daha dakik seferler</t>
+          <t>Improved punctuality</t>
         </is>
       </c>
       <c r="AI79" t="n">
@@ -13494,7 +13494,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>West Dorms/Guesthouses (Isa Demiray Dormitory, 19th Dorm, etc.)</t>
+          <t>West Dorms (Isa Demiray Student Dormitory, 19th Dorm, etc.)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -13562,7 +13562,7 @@
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>Dissatisfied</t>
+          <t>Unsatisfied</t>
         </is>
       </c>
       <c r="S80" t="inlineStr">
@@ -13655,7 +13655,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>East Dorms/Guesthouses (1st Dorm, 2nd Dorm, 16th Guesthouse, etc.)</t>
+          <t>East Dorms (1st Dorm, 2nd Dorm, 16th Guesthouse, etc.)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -13723,7 +13723,7 @@
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>Dissatisfied</t>
+          <t>Unsatisfied</t>
         </is>
       </c>
       <c r="S81" t="inlineStr">
@@ -13825,7 +13825,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -13878,7 +13878,7 @@
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
@@ -13951,7 +13951,7 @@
       </c>
       <c r="AE82" t="inlineStr">
         <is>
-          <t>20 dakikadan fazla</t>
+          <t>More than 20 minutes</t>
         </is>
       </c>
       <c r="AF82" t="inlineStr">
@@ -13990,7 +13990,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -14154,7 +14154,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>East Dorms/Guesthouses (1st Dorm, 2nd Dorm, 16th Guesthouse, etc.)</t>
+          <t>East Dorms (1st Dorm, 2nd Dorm, 16th Guesthouse, etc.)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -14222,7 +14222,7 @@
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>Dissatisfied</t>
+          <t>Unsatisfied</t>
         </is>
       </c>
       <c r="S84" t="inlineStr">
@@ -14324,7 +14324,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -14362,7 +14362,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -14484,7 +14484,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>East Dorms/Guesthouses (1st Dorm, 2nd Dorm, 16th Guesthouse, etc.)</t>
+          <t>East Dorms (1st Dorm, 2nd Dorm, 16th Guesthouse, etc.)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -14547,12 +14547,12 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>Late (19:00–23:00)</t>
+          <t>Late hours (19:00–23:00)</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>Dissatisfied</t>
+          <t>Unsatisfied</t>
         </is>
       </c>
       <c r="S86" t="inlineStr">
@@ -14658,7 +14658,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -14696,7 +14696,7 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>Haftada 1–2 kez</t>
+          <t>1–2 times a week</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -14711,7 +14711,7 @@
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
@@ -14823,7 +14823,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -14988,7 +14988,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -15026,7 +15026,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -15041,7 +15041,7 @@
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>Never use it</t>
+          <t>Never</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr">
@@ -15148,7 +15148,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>East Dorms/Guesthouses (1st Dorm, 2nd Dorm, 16th Guesthouse, etc.)</t>
+          <t>East Dorms (1st Dorm, 2nd Dorm, 16th Guesthouse, etc.)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -15211,12 +15211,12 @@
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>Late (19:00–23:00)</t>
+          <t>Late hours (19:00–23:00)</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>Dissatisfied</t>
+          <t>Unsatisfied</t>
         </is>
       </c>
       <c r="S90" t="inlineStr">
@@ -15311,7 +15311,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Off-campus (farther away)</t>
+          <t>Off-campus (far from campus)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -15402,7 +15402,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>East Dorms/Guesthouses (1st Dorm, 2nd Dorm, 16th Guesthouse, etc.)</t>
+          <t>East Dorms (1st Dorm, 2nd Dorm, 16th Guesthouse, etc.)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -15455,7 +15455,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>Dissatisfied</t>
+          <t>Unsatisfied</t>
         </is>
       </c>
       <c r="P92" t="inlineStr">
@@ -15470,7 +15470,7 @@
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>Very dissatisfied</t>
+          <t>Very Unsatisfied</t>
         </is>
       </c>
       <c r="S92" t="inlineStr">
@@ -15567,7 +15567,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>East Dorms/Guesthouses (1st Dorm, 2nd Dorm, 16th Guesthouse, etc.)</t>
+          <t>East Dorms (1st Dorm, 2nd Dorm, 16th Guesthouse, etc.)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -15630,7 +15630,7 @@
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>Late (19:00–23:00)</t>
+          <t>Late hours (19:00–23:00)</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
@@ -15646,7 +15646,7 @@
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="inlineStr">
         <is>
-          <t>Most convenient</t>
+          <t>Most convenient transportation method</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
@@ -15733,7 +15733,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -15786,7 +15786,7 @@
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr">
@@ -15868,7 +15868,7 @@
       </c>
       <c r="AH94" t="inlineStr">
         <is>
-          <t>Daha dakik seferler</t>
+          <t>Improved punctuality</t>
         </is>
       </c>
       <c r="AI94" t="n">
@@ -15889,7 +15889,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>West Dorms/Guesthouses (Isa Demiray Dormitory, 19th Dorm, etc.)</t>
+          <t>West Dorms (Isa Demiray Student Dormitory, 19th Dorm, etc.)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -15957,7 +15957,7 @@
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>Dissatisfied</t>
+          <t>Unsatisfied</t>
         </is>
       </c>
       <c r="S95" t="inlineStr">
@@ -16054,7 +16054,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>East Dorms/Guesthouses (1st Dorm, 2nd Dorm, 16th Guesthouse, etc.)</t>
+          <t>East Dorms (1st Dorm, 2nd Dorm, 16th Guesthouse, etc.)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -16122,7 +16122,7 @@
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>Dissatisfied</t>
+          <t>Unsatisfied</t>
         </is>
       </c>
       <c r="S96" t="inlineStr">
@@ -16215,7 +16215,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>East Dorms/Guesthouses (1st Dorm, 2nd Dorm, 16th Guesthouse, etc.)</t>
+          <t>East Dorms (1st Dorm, 2nd Dorm, 16th Guesthouse, etc.)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -16283,7 +16283,7 @@
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>Dissatisfied</t>
+          <t>Unsatisfied</t>
         </is>
       </c>
       <c r="S97" t="inlineStr">
@@ -16298,7 +16298,7 @@
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>Fastest</t>
+          <t>Fastest transportation method</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
@@ -16380,7 +16380,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Off-campus (farther away)</t>
+          <t>Off-campus (far from campus)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -16448,7 +16448,7 @@
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>Very dissatisfied</t>
+          <t>Very Unsatisfied</t>
         </is>
       </c>
       <c r="S98" t="inlineStr">
@@ -16557,7 +16557,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -16722,7 +16722,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -16887,7 +16887,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -17047,7 +17047,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>East Dorms/Guesthouses (1st Dorm, 2nd Dorm, 16th Guesthouse, etc.)</t>
+          <t>East Dorms (1st Dorm, 2nd Dorm, 16th Guesthouse, etc.)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -17126,7 +17126,7 @@
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>Fastest</t>
+          <t>Fastest transportation method</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
@@ -17211,7 +17211,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -17249,7 +17249,7 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
@@ -17264,7 +17264,7 @@
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q103" t="inlineStr">
@@ -17337,7 +17337,7 @@
       </c>
       <c r="AE103" t="inlineStr">
         <is>
-          <t>5 dakikadan az</t>
+          <t>Less than 5 minutes</t>
         </is>
       </c>
       <c r="AF103" t="inlineStr">
@@ -17376,7 +17376,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -17414,7 +17414,7 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
@@ -17429,7 +17429,7 @@
       </c>
       <c r="P104" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q104" t="inlineStr">
@@ -17515,7 +17515,7 @@
       </c>
       <c r="AH104" t="inlineStr">
         <is>
-          <t>Daha uzun hizmet saatleri</t>
+          <t>Extended service hours</t>
         </is>
       </c>
       <c r="AI104" t="n">
@@ -17536,7 +17536,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>East Dorms/Guesthouses (1st Dorm, 2nd Dorm, 16th Guesthouse, etc.)</t>
+          <t>East Dorms (1st Dorm, 2nd Dorm, 16th Guesthouse, etc.)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -17599,12 +17599,12 @@
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>Late (19:00–23:00)</t>
+          <t>Late hours (19:00–23:00)</t>
         </is>
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>Dissatisfied</t>
+          <t>Unsatisfied</t>
         </is>
       </c>
       <c r="S105" t="inlineStr">
@@ -17619,7 +17619,7 @@
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>It's free</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
@@ -17697,7 +17697,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Off-campus (farther away)</t>
+          <t>Off-campus (far from campus)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -17862,7 +17862,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Off-campus (farther away)</t>
+          <t>Off-campus (far from campus)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -17915,7 +17915,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>Dissatisfied</t>
+          <t>Unsatisfied</t>
         </is>
       </c>
       <c r="P107" t="inlineStr">
@@ -17930,7 +17930,7 @@
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>Very dissatisfied</t>
+          <t>Very Unsatisfied</t>
         </is>
       </c>
       <c r="S107" t="inlineStr">
@@ -18032,7 +18032,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -18154,7 +18154,7 @@
       </c>
       <c r="AE108" t="inlineStr">
         <is>
-          <t>5 dakikadan az</t>
+          <t>Less than 5 minutes</t>
         </is>
       </c>
       <c r="AF108" t="inlineStr">
@@ -18188,7 +18188,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>East Dorms/Guesthouses (1st Dorm, 2nd Dorm, 16th Guesthouse, etc.)</t>
+          <t>East Dorms (1st Dorm, 2nd Dorm, 16th Guesthouse, etc.)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -18236,7 +18236,7 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>Late evening (19:00-23:00)</t>
+          <t>Late hours (19:00–23:00)</t>
         </is>
       </c>
       <c r="O109" t="inlineStr">
@@ -18358,7 +18358,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -18531,7 +18531,7 @@
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeoloji mühendisliği </t>
+          <t>Geological Engineering</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -18658,7 +18658,7 @@
       </c>
       <c r="AH111" t="inlineStr">
         <is>
-          <t>Daha uzun hizmet saatleri</t>
+          <t>Extended service hours</t>
         </is>
       </c>
       <c r="AI111" t="n">
@@ -18684,7 +18684,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -18722,7 +18722,7 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N112" t="inlineStr">
@@ -18849,7 +18849,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -19014,7 +19014,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -19170,7 +19170,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>West Dorms/Guesthouses (Isa Demiray Dormitory, 19th Dorm, etc.)</t>
+          <t>West Dorms (Isa Demiray Student Dormitory, 19th Dorm, etc.)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -19238,7 +19238,7 @@
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>Very dissatisfied</t>
+          <t>Very Unsatisfied</t>
         </is>
       </c>
       <c r="S115" t="inlineStr">
@@ -19344,7 +19344,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -19382,7 +19382,7 @@
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>Haftada 1–2 kez</t>
+          <t>1–2 times a week</t>
         </is>
       </c>
       <c r="N116" t="inlineStr">
@@ -19509,7 +19509,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -19673,12 +19673,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>West Dorms/Guesthouses (Isa Demiray Dormitory, 19th Dorm, etc.)</t>
+          <t>West Dorms (Isa Demiray Student Dormitory, 19th Dorm, etc.)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Master’s (Graduate)</t>
+          <t>Master's</t>
         </is>
       </c>
       <c r="D118" t="inlineStr"/>
@@ -19726,7 +19726,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>Very dissatisfied</t>
+          <t>Very Unsatisfied</t>
         </is>
       </c>
       <c r="P118" t="inlineStr">
@@ -19741,7 +19741,7 @@
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>Very dissatisfied</t>
+          <t>Very Unsatisfied</t>
         </is>
       </c>
       <c r="S118" t="inlineStr">
@@ -19839,7 +19839,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -19978,7 +19978,7 @@
       </c>
       <c r="AH119" t="inlineStr">
         <is>
-          <t>Daha uzun hizmet saatleri</t>
+          <t>Extended service hours</t>
         </is>
       </c>
       <c r="AI119" t="n">
@@ -20004,7 +20004,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -20042,7 +20042,7 @@
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>Haftada 1–2 kez</t>
+          <t>1–2 times a week</t>
         </is>
       </c>
       <c r="N120" t="inlineStr">
@@ -20169,7 +20169,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -20207,7 +20207,7 @@
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>Haftada 1–2 kez</t>
+          <t>1–2 times a week</t>
         </is>
       </c>
       <c r="N121" t="inlineStr">
@@ -20222,7 +20222,7 @@
       </c>
       <c r="P121" t="inlineStr">
         <is>
-          <t>Never use it</t>
+          <t>Never</t>
         </is>
       </c>
       <c r="Q121" t="inlineStr">
@@ -20334,7 +20334,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -20372,7 +20372,7 @@
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N122" t="inlineStr">
@@ -20499,7 +20499,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -20664,7 +20664,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -20702,7 +20702,7 @@
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N124" t="inlineStr">
@@ -20790,7 +20790,7 @@
       </c>
       <c r="AE124" t="inlineStr">
         <is>
-          <t>5 dakikadan az</t>
+          <t>Less than 5 minutes</t>
         </is>
       </c>
       <c r="AF124" t="inlineStr">
@@ -20829,7 +20829,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -20977,7 +20977,7 @@
       <c r="AJ125" t="inlineStr"/>
       <c r="AK125" t="inlineStr">
         <is>
-          <t>Sosyoloji</t>
+          <t>Sociology</t>
         </is>
       </c>
     </row>
@@ -20994,7 +20994,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -21159,7 +21159,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -21197,7 +21197,7 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N127" t="inlineStr">
@@ -21324,7 +21324,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -21542,7 +21542,7 @@
       </c>
       <c r="P129" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q129" t="inlineStr">
@@ -21615,7 +21615,7 @@
       </c>
       <c r="AE129" t="inlineStr">
         <is>
-          <t>20 dakikadan fazla</t>
+          <t>More than 20 minutes</t>
         </is>
       </c>
       <c r="AF129" t="inlineStr">
@@ -21654,7 +21654,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -21692,7 +21692,7 @@
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N130" t="inlineStr">
@@ -21707,7 +21707,7 @@
       </c>
       <c r="P130" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q130" t="inlineStr">
@@ -21819,7 +21819,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -21958,7 +21958,7 @@
       </c>
       <c r="AH131" t="inlineStr">
         <is>
-          <t>Daha uzun hizmet saatleri</t>
+          <t>Extended service hours</t>
         </is>
       </c>
       <c r="AI131" t="n">
@@ -21967,7 +21967,7 @@
       <c r="AJ131" t="inlineStr"/>
       <c r="AK131" t="inlineStr">
         <is>
-          <t>Biyoloji</t>
+          <t>Biology</t>
         </is>
       </c>
     </row>
@@ -21984,7 +21984,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -22022,7 +22022,7 @@
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N132" t="inlineStr">
@@ -22149,7 +22149,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -22314,7 +22314,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -22367,7 +22367,7 @@
       </c>
       <c r="P134" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q134" t="inlineStr">
@@ -22462,7 +22462,7 @@
       <c r="AJ134" t="inlineStr"/>
       <c r="AK134" t="inlineStr">
         <is>
-          <t>Fizik</t>
+          <t>Physics</t>
         </is>
       </c>
     </row>
@@ -22474,7 +22474,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>East Dorms/Guesthouses (1st Dorm, 2nd Dorm, 16th Guesthouse, etc.)</t>
+          <t>East Dorms (1st Dorm, 2nd Dorm, 16th Guesthouse, etc.)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -22527,7 +22527,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>Dissatisfied</t>
+          <t>Unsatisfied</t>
         </is>
       </c>
       <c r="P135" t="inlineStr">
@@ -22542,7 +22542,7 @@
       </c>
       <c r="R135" t="inlineStr">
         <is>
-          <t>Very dissatisfied</t>
+          <t>Very Unsatisfied</t>
         </is>
       </c>
       <c r="S135" t="inlineStr">
@@ -22644,7 +22644,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -22783,7 +22783,7 @@
       </c>
       <c r="AH136" t="inlineStr">
         <is>
-          <t>Daha uzun hizmet saatleri</t>
+          <t>Extended service hours</t>
         </is>
       </c>
       <c r="AI136" t="n">
@@ -22809,7 +22809,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -22935,7 +22935,7 @@
       </c>
       <c r="AE137" t="inlineStr">
         <is>
-          <t>20 dakikadan fazla</t>
+          <t>More than 20 minutes</t>
         </is>
       </c>
       <c r="AF137" t="inlineStr">
@@ -22974,7 +22974,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -23012,7 +23012,7 @@
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N138" t="inlineStr">
@@ -23027,7 +23027,7 @@
       </c>
       <c r="P138" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q138" t="inlineStr">
@@ -23126,7 +23126,7 @@
       </c>
       <c r="AK138" t="inlineStr">
         <is>
-          <t>Biyoloji</t>
+          <t>Biology</t>
         </is>
       </c>
     </row>
@@ -23143,7 +23143,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -23196,7 +23196,7 @@
       </c>
       <c r="P139" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q139" t="inlineStr">
@@ -23295,7 +23295,7 @@
       </c>
       <c r="AK139" t="inlineStr">
         <is>
-          <t>Biyoloji</t>
+          <t>Biology</t>
         </is>
       </c>
     </row>
@@ -23312,7 +23312,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -23365,7 +23365,7 @@
       </c>
       <c r="P140" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q140" t="inlineStr">
@@ -23451,7 +23451,7 @@
       </c>
       <c r="AH140" t="inlineStr">
         <is>
-          <t>Daha uzun hizmet saatleri</t>
+          <t>Extended service hours</t>
         </is>
       </c>
       <c r="AI140" t="n">
@@ -23477,7 +23477,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -23515,7 +23515,7 @@
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N141" t="inlineStr">
@@ -23642,7 +23642,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -23680,7 +23680,7 @@
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>Haftada 1–2 kez</t>
+          <t>1–2 times a week</t>
         </is>
       </c>
       <c r="N142" t="inlineStr">
@@ -23803,7 +23803,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -23972,7 +23972,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -24137,7 +24137,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -24190,7 +24190,7 @@
       </c>
       <c r="P145" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q145" t="inlineStr">
@@ -24276,7 +24276,7 @@
       </c>
       <c r="AH145" t="inlineStr">
         <is>
-          <t>Daha uzun hizmet saatleri</t>
+          <t>Extended service hours</t>
         </is>
       </c>
       <c r="AI145" t="n">
@@ -24289,7 +24289,7 @@
       </c>
       <c r="AK145" t="inlineStr">
         <is>
-          <t>Tarih</t>
+          <t>History</t>
         </is>
       </c>
     </row>
@@ -24306,7 +24306,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -24359,7 +24359,7 @@
       </c>
       <c r="P146" t="inlineStr">
         <is>
-          <t>Never use it</t>
+          <t>Never</t>
         </is>
       </c>
       <c r="Q146" t="inlineStr">
@@ -24455,7 +24455,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -24620,7 +24620,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -24789,7 +24789,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -24954,7 +24954,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -25119,7 +25119,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -25283,7 +25283,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>East Dorms/Guesthouses (1st Dorm, 2nd Dorm, 16th Guesthouse, etc.)</t>
+          <t>East Dorms (1st Dorm, 2nd Dorm, 16th Guesthouse, etc.)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -25346,12 +25346,12 @@
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>Late (19:00–23:00)</t>
+          <t>Late hours (19:00–23:00)</t>
         </is>
       </c>
       <c r="R152" t="inlineStr">
         <is>
-          <t>Dissatisfied</t>
+          <t>Unsatisfied</t>
         </is>
       </c>
       <c r="S152" t="inlineStr">
@@ -25444,7 +25444,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>East Dorms/Guesthouses (1st Dorm, 2nd Dorm, 16th Guesthouse, etc.)</t>
+          <t>East Dorms (1st Dorm, 2nd Dorm, 16th Guesthouse, etc.)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -25497,7 +25497,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>Dissatisfied</t>
+          <t>Unsatisfied</t>
         </is>
       </c>
       <c r="P153" t="inlineStr">
@@ -25507,7 +25507,7 @@
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>Late (19:00–23:00)</t>
+          <t>Late hours (19:00–23:00)</t>
         </is>
       </c>
       <c r="R153" t="inlineStr">
@@ -25609,7 +25609,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Off-campus (farther away)</t>
+          <t>Off-campus (far from campus)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -25662,7 +25662,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>Dissatisfied</t>
+          <t>Unsatisfied</t>
         </is>
       </c>
       <c r="P154" t="inlineStr">
@@ -25677,7 +25677,7 @@
       </c>
       <c r="R154" t="inlineStr">
         <is>
-          <t>Dissatisfied</t>
+          <t>Unsatisfied</t>
         </is>
       </c>
       <c r="S154" t="inlineStr">
@@ -25783,7 +25783,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -25909,7 +25909,7 @@
       </c>
       <c r="AE155" t="inlineStr">
         <is>
-          <t>20 dakikadan fazla</t>
+          <t>More than 20 minutes</t>
         </is>
       </c>
       <c r="AF155" t="inlineStr">
@@ -25952,7 +25952,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -26113,7 +26113,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -26151,7 +26151,7 @@
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N157" t="inlineStr">
@@ -26166,7 +26166,7 @@
       </c>
       <c r="P157" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q157" t="inlineStr">
@@ -26278,7 +26278,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -26443,7 +26443,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -26496,7 +26496,7 @@
       </c>
       <c r="P159" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q159" t="inlineStr">
@@ -26589,7 +26589,7 @@
       <c r="AJ159" t="inlineStr"/>
       <c r="AK159" t="inlineStr">
         <is>
-          <t>Matematik</t>
+          <t>Mathematics</t>
         </is>
       </c>
     </row>
@@ -26606,7 +26606,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -26754,7 +26754,7 @@
       <c r="AJ160" t="inlineStr"/>
       <c r="AK160" t="inlineStr">
         <is>
-          <t>Psikoloji</t>
+          <t>Psychology</t>
         </is>
       </c>
     </row>
@@ -26771,7 +26771,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -26824,7 +26824,7 @@
       </c>
       <c r="P161" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q161" t="inlineStr">
@@ -26936,7 +26936,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -26974,7 +26974,7 @@
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N162" t="inlineStr">
@@ -26989,7 +26989,7 @@
       </c>
       <c r="P162" t="inlineStr">
         <is>
-          <t>Never use it</t>
+          <t>Never</t>
         </is>
       </c>
       <c r="Q162" t="inlineStr">
@@ -27105,7 +27105,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -27158,7 +27158,7 @@
       </c>
       <c r="P163" t="inlineStr">
         <is>
-          <t>Never use it</t>
+          <t>Never</t>
         </is>
       </c>
       <c r="Q163" t="inlineStr">
@@ -27274,7 +27274,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -27312,7 +27312,7 @@
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N164" t="inlineStr">
@@ -27327,7 +27327,7 @@
       </c>
       <c r="P164" t="inlineStr">
         <is>
-          <t>Never use it</t>
+          <t>Never</t>
         </is>
       </c>
       <c r="Q164" t="inlineStr"/>
@@ -27409,7 +27409,7 @@
       </c>
       <c r="AH164" t="inlineStr">
         <is>
-          <t>Daha dakik seferler</t>
+          <t>Improved punctuality</t>
         </is>
       </c>
       <c r="AI164" t="n">
@@ -27439,7 +27439,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -27599,7 +27599,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>East Dorms/Guesthouses (1st Dorm, 2nd Dorm, 16th Guesthouse, etc.)</t>
+          <t>East Dorms (1st Dorm, 2nd Dorm, 16th Guesthouse, etc.)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -27682,7 +27682,7 @@
       </c>
       <c r="U166" t="inlineStr">
         <is>
-          <t>Most convenient</t>
+          <t>Most convenient transportation method</t>
         </is>
       </c>
       <c r="V166" t="inlineStr"/>
@@ -27737,7 +27737,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -27775,7 +27775,7 @@
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N167" t="inlineStr">
@@ -27876,7 +27876,7 @@
       </c>
       <c r="AH167" t="inlineStr">
         <is>
-          <t>Daha uzun hizmet saatleri</t>
+          <t>Extended service hours</t>
         </is>
       </c>
       <c r="AI167" t="n">
@@ -27902,7 +27902,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -27940,7 +27940,7 @@
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N168" t="inlineStr">
@@ -28071,7 +28071,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -28236,7 +28236,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -28274,7 +28274,7 @@
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N170" t="inlineStr">
@@ -28375,7 +28375,7 @@
       </c>
       <c r="AH170" t="inlineStr">
         <is>
-          <t>Daha uzun hizmet saatleri</t>
+          <t>Extended service hours</t>
         </is>
       </c>
       <c r="AI170" t="n">
@@ -28384,7 +28384,7 @@
       <c r="AJ170" t="inlineStr"/>
       <c r="AK170" t="inlineStr">
         <is>
-          <t>Kimya</t>
+          <t>Chemistry</t>
         </is>
       </c>
     </row>
@@ -28401,7 +28401,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -28439,7 +28439,7 @@
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N171" t="inlineStr">
@@ -28549,7 +28549,7 @@
       <c r="AJ171" t="inlineStr"/>
       <c r="AK171" t="inlineStr">
         <is>
-          <t>Sosyoloji</t>
+          <t>Sociology</t>
         </is>
       </c>
     </row>
@@ -28566,7 +28566,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -28714,7 +28714,7 @@
       <c r="AJ172" t="inlineStr"/>
       <c r="AK172" t="inlineStr">
         <is>
-          <t>Kimya</t>
+          <t>Chemistry</t>
         </is>
       </c>
     </row>
@@ -28731,7 +28731,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -28784,7 +28784,7 @@
       </c>
       <c r="P173" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q173" t="inlineStr">
@@ -28879,7 +28879,7 @@
       <c r="AJ173" t="inlineStr"/>
       <c r="AK173" t="inlineStr">
         <is>
-          <t>Kimya</t>
+          <t>Chemistry</t>
         </is>
       </c>
     </row>
@@ -28896,7 +28896,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -28934,7 +28934,7 @@
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N174" t="inlineStr">
@@ -29065,7 +29065,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -29118,7 +29118,7 @@
       </c>
       <c r="P175" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q175" t="inlineStr">
@@ -29230,7 +29230,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -29268,7 +29268,7 @@
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N176" t="inlineStr">
@@ -29283,7 +29283,7 @@
       </c>
       <c r="P176" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q176" t="inlineStr">
@@ -29399,7 +29399,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -29437,7 +29437,7 @@
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>Haftada 1–2 kez</t>
+          <t>1–2 times a week</t>
         </is>
       </c>
       <c r="N177" t="inlineStr">
@@ -29452,7 +29452,7 @@
       </c>
       <c r="P177" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q177" t="inlineStr">
@@ -29602,7 +29602,7 @@
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N178" t="inlineStr">
@@ -29712,7 +29712,7 @@
       <c r="AJ178" t="inlineStr"/>
       <c r="AK178" t="inlineStr">
         <is>
-          <t>Psikoloji</t>
+          <t>Psychology</t>
         </is>
       </c>
     </row>
@@ -29932,7 +29932,7 @@
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N180" t="inlineStr">
@@ -30054,12 +30054,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>West Dorms/Guesthouses (Isa Demiray Dormitory, 19th Dorm, etc.)</t>
+          <t>West Dorms (Isa Demiray Student Dormitory, 19th Dorm, etc.)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>PhD (Doctoral)</t>
+          <t>PhD</t>
         </is>
       </c>
       <c r="D181" t="inlineStr"/>
@@ -30122,7 +30122,7 @@
       </c>
       <c r="R181" t="inlineStr">
         <is>
-          <t>Dissatisfied</t>
+          <t>Unsatisfied</t>
         </is>
       </c>
       <c r="S181" t="inlineStr">
@@ -30372,7 +30372,7 @@
       </c>
       <c r="AK182" t="inlineStr">
         <is>
-          <t>Fizik</t>
+          <t>Physics</t>
         </is>
       </c>
     </row>
@@ -30427,7 +30427,7 @@
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N183" t="inlineStr">
@@ -30515,7 +30515,7 @@
       </c>
       <c r="AE183" t="inlineStr">
         <is>
-          <t>20 dakikadan fazla</t>
+          <t>More than 20 minutes</t>
         </is>
       </c>
       <c r="AF183" t="inlineStr">
@@ -30545,7 +30545,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Postgraduate guesthouse</t>
+          <t>Postgraduate Guesthouse</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -30588,7 +30588,7 @@
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N184" t="inlineStr">
@@ -30922,7 +30922,7 @@
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N186" t="inlineStr">
@@ -31023,7 +31023,7 @@
       </c>
       <c r="AH186" t="inlineStr">
         <is>
-          <t>Daha dakik seferler</t>
+          <t>Improved punctuality</t>
         </is>
       </c>
       <c r="AI186" t="n">
@@ -31175,7 +31175,7 @@
       </c>
       <c r="AE187" t="inlineStr">
         <is>
-          <t>5 dakikadan az</t>
+          <t>Less than 5 minutes</t>
         </is>
       </c>
       <c r="AF187" t="inlineStr">
@@ -31442,7 +31442,7 @@
       </c>
       <c r="R189" t="inlineStr">
         <is>
-          <t>Highly Satisfied</t>
+          <t>Very Satisfied</t>
         </is>
       </c>
       <c r="S189" t="inlineStr">
@@ -31705,7 +31705,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -32165,7 +32165,7 @@
       </c>
       <c r="AE193" t="inlineStr">
         <is>
-          <t>20 dakikadan fazla</t>
+          <t>More than 20 minutes</t>
         </is>
       </c>
       <c r="AF193" t="inlineStr">
@@ -32178,7 +32178,7 @@
       </c>
       <c r="AH193" t="inlineStr">
         <is>
-          <t>Daha uzun hizmet saatleri</t>
+          <t>Extended service hours</t>
         </is>
       </c>
       <c r="AI193" t="n">
@@ -32246,7 +32246,7 @@
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N194" t="inlineStr">
@@ -32356,7 +32356,7 @@
       <c r="AJ194" t="inlineStr"/>
       <c r="AK194" t="inlineStr">
         <is>
-          <t>Psikoloji</t>
+          <t>Psychology</t>
         </is>
       </c>
     </row>
@@ -32426,7 +32426,7 @@
       </c>
       <c r="P195" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q195" t="inlineStr">
@@ -32521,7 +32521,7 @@
       <c r="AJ195" t="inlineStr"/>
       <c r="AK195" t="inlineStr">
         <is>
-          <t>Psikoloji</t>
+          <t>Psychology</t>
         </is>
       </c>
     </row>
@@ -32752,7 +32752,7 @@
       </c>
       <c r="P197" t="inlineStr">
         <is>
-          <t>Never use it</t>
+          <t>Never</t>
         </is>
       </c>
       <c r="Q197" t="inlineStr"/>
@@ -32843,7 +32843,7 @@
       <c r="AJ197" t="inlineStr"/>
       <c r="AK197" t="inlineStr">
         <is>
-          <t>Psikoloji</t>
+          <t>Psychology</t>
         </is>
       </c>
     </row>
@@ -33003,7 +33003,7 @@
       </c>
       <c r="AH198" t="inlineStr">
         <is>
-          <t>Daha uzun hizmet saatleri</t>
+          <t>Extended service hours</t>
         </is>
       </c>
       <c r="AI198" t="n">
@@ -33155,7 +33155,7 @@
       </c>
       <c r="AE199" t="inlineStr">
         <is>
-          <t>20 dakikadan fazla</t>
+          <t>More than 20 minutes</t>
         </is>
       </c>
       <c r="AF199" t="inlineStr">
@@ -33189,12 +33189,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>West Dorms/Guesthouses (Isa Demiray Dormitory, 19th Dorm, etc.)</t>
+          <t>West Dorms (Isa Demiray Student Dormitory, 19th Dorm, etc.)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Master’s (Graduate)</t>
+          <t>Master's</t>
         </is>
       </c>
       <c r="D200" t="inlineStr"/>
@@ -33257,7 +33257,7 @@
       </c>
       <c r="R200" t="inlineStr">
         <is>
-          <t>Dissatisfied</t>
+          <t>Unsatisfied</t>
         </is>
       </c>
       <c r="S200" t="inlineStr">
@@ -33339,7 +33339,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -33377,7 +33377,7 @@
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N201" t="inlineStr">
@@ -33487,7 +33487,7 @@
       <c r="AJ201" t="inlineStr"/>
       <c r="AK201" t="inlineStr">
         <is>
-          <t>Fizik</t>
+          <t>Physics</t>
         </is>
       </c>
     </row>
@@ -33542,14 +33542,14 @@
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>Haftada 1–2 kez</t>
+          <t>1–2 times a week</t>
         </is>
       </c>
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr"/>
       <c r="P202" t="inlineStr">
         <is>
-          <t>Never use it</t>
+          <t>Never</t>
         </is>
       </c>
       <c r="Q202" t="inlineStr"/>
@@ -33614,7 +33614,7 @@
       </c>
       <c r="AE202" t="inlineStr">
         <is>
-          <t>5 dakikadan az</t>
+          <t>Less than 5 minutes</t>
         </is>
       </c>
       <c r="AF202" t="inlineStr">
@@ -33652,7 +33652,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -33812,7 +33812,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>West Dorms/Guesthouses (Isa Demiray Dormitory, 19th Dorm, etc.)</t>
+          <t>West Dorms (Isa Demiray Student Dormitory, 19th Dorm, etc.)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -33865,7 +33865,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>Very satisfied</t>
+          <t>Very Satisfied</t>
         </is>
       </c>
       <c r="P204" t="inlineStr">
@@ -33973,7 +33973,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>West Dorms/Guesthouses (Isa Demiray Dormitory, 19th Dorm, etc.)</t>
+          <t>West Dorms (Isa Demiray Student Dormitory, 19th Dorm, etc.)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -34041,7 +34041,7 @@
       </c>
       <c r="R205" t="inlineStr">
         <is>
-          <t>Dissatisfied</t>
+          <t>Unsatisfied</t>
         </is>
       </c>
       <c r="S205" t="inlineStr">
@@ -34143,7 +34143,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -34181,7 +34181,7 @@
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N206" t="inlineStr">
@@ -34196,7 +34196,7 @@
       </c>
       <c r="P206" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q206" t="inlineStr"/>
@@ -34299,7 +34299,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Off-campus (farther away)</t>
+          <t>Off-campus (far from campus)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -34352,7 +34352,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>Dissatisfied</t>
+          <t>Unsatisfied</t>
         </is>
       </c>
       <c r="P207" t="inlineStr">
@@ -34362,12 +34362,12 @@
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>Evening (15:00–19:00)</t>
+          <t>Afternoon (15:00–19:00)</t>
         </is>
       </c>
       <c r="R207" t="inlineStr">
         <is>
-          <t>Dissatisfied</t>
+          <t>Unsatisfied</t>
         </is>
       </c>
       <c r="S207" t="inlineStr">
@@ -34469,7 +34469,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -34617,7 +34617,7 @@
       <c r="AJ208" t="inlineStr"/>
       <c r="AK208" t="inlineStr">
         <is>
-          <t>Fizik</t>
+          <t>Physics</t>
         </is>
       </c>
     </row>
@@ -34634,7 +34634,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -34687,7 +34687,7 @@
       </c>
       <c r="P209" t="inlineStr">
         <is>
-          <t>Never use it</t>
+          <t>Never</t>
         </is>
       </c>
       <c r="Q209" t="inlineStr"/>
@@ -34778,7 +34778,7 @@
       <c r="AJ209" t="inlineStr"/>
       <c r="AK209" t="inlineStr">
         <is>
-          <t>Fizik</t>
+          <t>Physics</t>
         </is>
       </c>
     </row>
@@ -34795,7 +34795,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -34848,7 +34848,7 @@
       </c>
       <c r="P210" t="inlineStr">
         <is>
-          <t>Never use it</t>
+          <t>Never</t>
         </is>
       </c>
       <c r="Q210" t="inlineStr"/>
@@ -34935,7 +34935,7 @@
       <c r="AJ210" t="inlineStr"/>
       <c r="AK210" t="inlineStr">
         <is>
-          <t>Fizik</t>
+          <t>Physics</t>
         </is>
       </c>
     </row>
@@ -34952,7 +34952,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -35005,7 +35005,7 @@
       </c>
       <c r="P211" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q211" t="inlineStr">
@@ -35104,7 +35104,7 @@
       </c>
       <c r="AK211" t="inlineStr">
         <is>
-          <t>Fizik</t>
+          <t>Physics</t>
         </is>
       </c>
     </row>
@@ -35121,7 +35121,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -35159,7 +35159,7 @@
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>Haftada 1–2 kez</t>
+          <t>1–2 times a week</t>
         </is>
       </c>
       <c r="N212" t="inlineStr">
@@ -35174,7 +35174,7 @@
       </c>
       <c r="P212" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q212" t="inlineStr">
@@ -35281,7 +35281,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Off-campus (farther away)</t>
+          <t>Off-campus (far from campus)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -35334,7 +35334,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>Dissatisfied</t>
+          <t>Unsatisfied</t>
         </is>
       </c>
       <c r="P213" t="inlineStr">
@@ -35345,7 +35345,7 @@
       <c r="Q213" t="inlineStr"/>
       <c r="R213" t="inlineStr">
         <is>
-          <t>Very dissatisfied</t>
+          <t>Very Unsatisfied</t>
         </is>
       </c>
       <c r="S213" t="inlineStr">
@@ -35442,7 +35442,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>East Dorms/Guesthouses (1st Dorm, 2nd Dorm, 16th Guesthouse, etc.)</t>
+          <t>East Dorms (1st Dorm, 2nd Dorm, 16th Guesthouse, etc.)</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -35495,7 +35495,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>Dissatisfied</t>
+          <t>Unsatisfied</t>
         </is>
       </c>
       <c r="P214" t="inlineStr">
@@ -35505,12 +35505,12 @@
       </c>
       <c r="Q214" t="inlineStr">
         <is>
-          <t>Evening (15:00–19:00)</t>
+          <t>Afternoon (15:00–19:00)</t>
         </is>
       </c>
       <c r="R214" t="inlineStr">
         <is>
-          <t>Dissatisfied</t>
+          <t>Unsatisfied</t>
         </is>
       </c>
       <c r="S214" t="inlineStr">
@@ -35608,7 +35608,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -35661,7 +35661,7 @@
       </c>
       <c r="P215" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q215" t="inlineStr"/>
@@ -35756,7 +35756,7 @@
       </c>
       <c r="AK215" t="inlineStr">
         <is>
-          <t>Fizik</t>
+          <t>Physics</t>
         </is>
       </c>
     </row>
@@ -35773,7 +35773,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -35811,7 +35811,7 @@
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N216" t="inlineStr">
@@ -35912,7 +35912,7 @@
       </c>
       <c r="AH216" t="inlineStr">
         <is>
-          <t>Daha uzun hizmet saatleri</t>
+          <t>Extended service hours</t>
         </is>
       </c>
       <c r="AI216" t="n">
@@ -35921,7 +35921,7 @@
       <c r="AJ216" t="inlineStr"/>
       <c r="AK216" t="inlineStr">
         <is>
-          <t>Psikoloji</t>
+          <t>Psychology</t>
         </is>
       </c>
     </row>
@@ -35938,7 +35938,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -35991,7 +35991,7 @@
       </c>
       <c r="P217" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q217" t="inlineStr"/>
@@ -36090,7 +36090,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>West Dorms/Guesthouses (Isa Demiray Dormitory, 19th Dorm, etc.)</t>
+          <t>West Dorms (Isa Demiray Student Dormitory, 19th Dorm, etc.)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -36138,7 +36138,7 @@
       </c>
       <c r="N218" t="inlineStr">
         <is>
-          <t>Late evening (19:00-23:00)</t>
+          <t>Late hours (19:00–23:00)</t>
         </is>
       </c>
       <c r="O218" t="inlineStr">
@@ -36158,7 +36158,7 @@
       </c>
       <c r="R218" t="inlineStr">
         <is>
-          <t>Very dissatisfied</t>
+          <t>Very Unsatisfied</t>
         </is>
       </c>
       <c r="S218" t="inlineStr">
@@ -36260,7 +36260,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -36313,7 +36313,7 @@
       </c>
       <c r="P219" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q219" t="inlineStr"/>
@@ -36371,7 +36371,7 @@
       </c>
       <c r="AH219" t="inlineStr">
         <is>
-          <t>Daha uzun hizmet saatleri</t>
+          <t>Extended service hours</t>
         </is>
       </c>
       <c r="AI219" t="n">
@@ -36384,7 +36384,7 @@
       </c>
       <c r="AK219" t="inlineStr">
         <is>
-          <t>Fizik</t>
+          <t>Physics</t>
         </is>
       </c>
     </row>
@@ -36401,7 +36401,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -36454,7 +36454,7 @@
       </c>
       <c r="P220" t="inlineStr">
         <is>
-          <t>Never use it</t>
+          <t>Never</t>
         </is>
       </c>
       <c r="Q220" t="inlineStr"/>
@@ -36562,7 +36562,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -36615,7 +36615,7 @@
       </c>
       <c r="P221" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q221" t="inlineStr">
@@ -36710,7 +36710,7 @@
       <c r="AJ221" t="inlineStr"/>
       <c r="AK221" t="inlineStr">
         <is>
-          <t>Matematik</t>
+          <t>Mathematics</t>
         </is>
       </c>
     </row>
@@ -36722,7 +36722,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>East Dorms/Guesthouses (1st Dorm, 2nd Dorm, 16th Guesthouse, etc.)</t>
+          <t>East Dorms (1st Dorm, 2nd Dorm, 16th Guesthouse, etc.)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -36734,7 +36734,7 @@
       <c r="E222" t="inlineStr"/>
       <c r="F222" t="inlineStr">
         <is>
-          <t>Fle</t>
+          <t>School of Foreign Languages</t>
         </is>
       </c>
       <c r="G222" t="inlineStr"/>
@@ -36775,7 +36775,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>Very dissatisfied</t>
+          <t>Very Unsatisfied</t>
         </is>
       </c>
       <c r="P222" t="inlineStr">
@@ -36785,7 +36785,7 @@
       </c>
       <c r="Q222" t="inlineStr">
         <is>
-          <t>Late (19:00–23:00)</t>
+          <t>Late hours (19:00–23:00)</t>
         </is>
       </c>
       <c r="R222" t="inlineStr">
@@ -36888,7 +36888,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -37036,7 +37036,7 @@
       <c r="AJ223" t="inlineStr"/>
       <c r="AK223" t="inlineStr">
         <is>
-          <t>Fizik</t>
+          <t>Physics</t>
         </is>
       </c>
     </row>
@@ -37053,7 +37053,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -37091,7 +37091,7 @@
       </c>
       <c r="M224" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N224" t="inlineStr">
@@ -37222,7 +37222,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -37391,7 +37391,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -37439,12 +37439,12 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>Highly Satisfied</t>
+          <t>Very Satisfied</t>
         </is>
       </c>
       <c r="P226" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q226" t="inlineStr">
@@ -37560,7 +37560,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -37613,7 +37613,7 @@
       </c>
       <c r="P227" t="inlineStr">
         <is>
-          <t>Never use it</t>
+          <t>Never</t>
         </is>
       </c>
       <c r="Q227" t="inlineStr"/>
@@ -37702,7 +37702,7 @@
       <c r="AJ227" t="inlineStr"/>
       <c r="AK227" t="inlineStr">
         <is>
-          <t>Fizik</t>
+          <t>Physics</t>
         </is>
       </c>
     </row>
@@ -37719,7 +37719,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -37757,7 +37757,7 @@
       </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N228" t="inlineStr">
@@ -37871,7 +37871,7 @@
       </c>
       <c r="AK228" t="inlineStr">
         <is>
-          <t>Fizik</t>
+          <t>Physics</t>
         </is>
       </c>
     </row>
@@ -37888,7 +37888,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -38057,7 +38057,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -38095,7 +38095,7 @@
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N230" t="inlineStr">
@@ -38110,7 +38110,7 @@
       </c>
       <c r="P230" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q230" t="inlineStr">
@@ -38209,7 +38209,7 @@
       </c>
       <c r="AK230" t="inlineStr">
         <is>
-          <t>Psikoloji</t>
+          <t>Psychology</t>
         </is>
       </c>
     </row>
@@ -38221,7 +38221,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>East Dorms/Guesthouses (1st Dorm, 2nd Dorm, 16th Guesthouse, etc.)</t>
+          <t>East Dorms (1st Dorm, 2nd Dorm, 16th Guesthouse, etc.)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -38284,7 +38284,7 @@
       </c>
       <c r="Q231" t="inlineStr">
         <is>
-          <t>Midday (11:00–15:00)</t>
+          <t>Noon (11:00–15:00)</t>
         </is>
       </c>
       <c r="R231" t="inlineStr">
@@ -38386,7 +38386,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>East Dorms/Guesthouses (1st Dorm, 2nd Dorm, 16th Guesthouse, etc.)</t>
+          <t>East Dorms (1st Dorm, 2nd Dorm, 16th Guesthouse, etc.)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -38454,7 +38454,7 @@
       </c>
       <c r="R232" t="inlineStr">
         <is>
-          <t>Dissatisfied</t>
+          <t>Unsatisfied</t>
         </is>
       </c>
       <c r="S232" t="inlineStr">
@@ -38469,7 +38469,7 @@
       </c>
       <c r="U232" t="inlineStr">
         <is>
-          <t>It's free</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="V232" t="inlineStr">
@@ -38556,7 +38556,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -38708,7 +38708,7 @@
       </c>
       <c r="AK233" t="inlineStr">
         <is>
-          <t>Biyoloji</t>
+          <t>Biology</t>
         </is>
       </c>
     </row>
@@ -38725,7 +38725,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -38864,7 +38864,7 @@
       </c>
       <c r="AH234" t="inlineStr">
         <is>
-          <t>Daha uzun hizmet saatleri</t>
+          <t>Extended service hours</t>
         </is>
       </c>
       <c r="AI234" t="n">
@@ -38894,7 +38894,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -39033,7 +39033,7 @@
       </c>
       <c r="AH235" t="inlineStr">
         <is>
-          <t>Daha uzun hizmet saatleri</t>
+          <t>Extended service hours</t>
         </is>
       </c>
       <c r="AI235" t="n">
@@ -39059,7 +39059,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -39097,7 +39097,7 @@
       </c>
       <c r="M236" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N236" t="inlineStr">
@@ -39112,7 +39112,7 @@
       </c>
       <c r="P236" t="inlineStr">
         <is>
-          <t>Never use it</t>
+          <t>Never</t>
         </is>
       </c>
       <c r="Q236" t="inlineStr"/>
@@ -39194,7 +39194,7 @@
       </c>
       <c r="AH236" t="inlineStr">
         <is>
-          <t>Daha uzun hizmet saatleri</t>
+          <t>Extended service hours</t>
         </is>
       </c>
       <c r="AI236" t="n">
@@ -39220,7 +39220,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -39258,7 +39258,7 @@
       </c>
       <c r="M237" t="inlineStr">
         <is>
-          <t>Haftada 1–2 kez</t>
+          <t>1–2 times a week</t>
         </is>
       </c>
       <c r="N237" t="inlineStr">
@@ -39273,7 +39273,7 @@
       </c>
       <c r="P237" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q237" t="inlineStr">
@@ -39389,7 +39389,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -39427,7 +39427,7 @@
       </c>
       <c r="M238" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N238" t="inlineStr">
@@ -39537,7 +39537,7 @@
       <c r="AJ238" t="inlineStr"/>
       <c r="AK238" t="inlineStr">
         <is>
-          <t>Biyoloji</t>
+          <t>Biology</t>
         </is>
       </c>
     </row>
@@ -39549,7 +39549,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Off-campus (farther away)</t>
+          <t>Off-campus (far from campus)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -39612,12 +39612,12 @@
       </c>
       <c r="Q239" t="inlineStr">
         <is>
-          <t>Midday (11:00–15:00)</t>
+          <t>Noon (11:00–15:00)</t>
         </is>
       </c>
       <c r="R239" t="inlineStr">
         <is>
-          <t>Very dissatisfied</t>
+          <t>Very Unsatisfied</t>
         </is>
       </c>
       <c r="S239" t="inlineStr">
@@ -39723,7 +39723,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -39776,7 +39776,7 @@
       </c>
       <c r="P240" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q240" t="inlineStr">
@@ -39888,7 +39888,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -39926,7 +39926,7 @@
       </c>
       <c r="M241" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N241" t="inlineStr">
@@ -40027,7 +40027,7 @@
       </c>
       <c r="AH241" t="inlineStr">
         <is>
-          <t>Daha uzun hizmet saatleri</t>
+          <t>Extended service hours</t>
         </is>
       </c>
       <c r="AI241" t="n">
@@ -40053,7 +40053,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -40091,7 +40091,7 @@
       </c>
       <c r="M242" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N242" t="inlineStr">
@@ -40106,7 +40106,7 @@
       </c>
       <c r="P242" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q242" t="inlineStr">
@@ -40222,7 +40222,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -40260,7 +40260,7 @@
       </c>
       <c r="M243" t="inlineStr">
         <is>
-          <t>Haftada 1–2 kez</t>
+          <t>1–2 times a week</t>
         </is>
       </c>
       <c r="N243" t="inlineStr">
@@ -40275,7 +40275,7 @@
       </c>
       <c r="P243" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q243" t="inlineStr"/>
@@ -40383,7 +40383,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -40432,7 +40432,7 @@
       </c>
       <c r="P244" t="inlineStr">
         <is>
-          <t>Never use it</t>
+          <t>Never</t>
         </is>
       </c>
       <c r="Q244" t="inlineStr"/>
@@ -40519,7 +40519,7 @@
       <c r="AJ244" t="inlineStr"/>
       <c r="AK244" t="inlineStr">
         <is>
-          <t>Kimya</t>
+          <t>Chemistry</t>
         </is>
       </c>
     </row>
@@ -40536,7 +40536,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -40574,7 +40574,7 @@
       </c>
       <c r="M245" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N245" t="inlineStr">
@@ -40701,7 +40701,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -40849,7 +40849,7 @@
       <c r="AJ246" t="inlineStr"/>
       <c r="AK246" t="inlineStr">
         <is>
-          <t>Felsefe</t>
+          <t>Philosophy</t>
         </is>
       </c>
     </row>
@@ -40866,7 +40866,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -40904,7 +40904,7 @@
       </c>
       <c r="M247" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N247" t="inlineStr">
@@ -41014,7 +41014,7 @@
       <c r="AJ247" t="inlineStr"/>
       <c r="AK247" t="inlineStr">
         <is>
-          <t>Psikoloji</t>
+          <t>Psychology</t>
         </is>
       </c>
     </row>
@@ -41031,7 +41031,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -41069,7 +41069,7 @@
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N248" t="inlineStr">
@@ -41084,7 +41084,7 @@
       </c>
       <c r="P248" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q248" t="inlineStr">
@@ -41157,7 +41157,7 @@
       </c>
       <c r="AE248" t="inlineStr">
         <is>
-          <t>5 dakikadan az</t>
+          <t>Less than 5 minutes</t>
         </is>
       </c>
       <c r="AF248" t="inlineStr">
@@ -41170,7 +41170,7 @@
       </c>
       <c r="AH248" t="inlineStr">
         <is>
-          <t>Daha uzun hizmet saatleri</t>
+          <t>Extended service hours</t>
         </is>
       </c>
       <c r="AI248" t="n">
@@ -41200,7 +41200,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -41253,7 +41253,7 @@
       </c>
       <c r="P249" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q249" t="inlineStr">
@@ -41369,7 +41369,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -41517,7 +41517,7 @@
       <c r="AJ250" t="inlineStr"/>
       <c r="AK250" t="inlineStr">
         <is>
-          <t>Kimya</t>
+          <t>Chemistry</t>
         </is>
       </c>
     </row>
@@ -41534,7 +41534,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -41587,7 +41587,7 @@
       </c>
       <c r="P251" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q251" t="inlineStr">
@@ -41673,7 +41673,7 @@
       </c>
       <c r="AH251" t="inlineStr">
         <is>
-          <t>Daha uzun hizmet saatleri</t>
+          <t>Extended service hours</t>
         </is>
       </c>
       <c r="AI251" t="n">
@@ -41703,7 +41703,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -41756,7 +41756,7 @@
       </c>
       <c r="P252" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q252" t="inlineStr">
@@ -41868,7 +41868,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -41994,7 +41994,7 @@
       </c>
       <c r="AE253" t="inlineStr">
         <is>
-          <t>20 dakikadan fazla</t>
+          <t>More than 20 minutes</t>
         </is>
       </c>
       <c r="AF253" t="inlineStr">
@@ -42007,7 +42007,7 @@
       </c>
       <c r="AH253" t="inlineStr">
         <is>
-          <t>Daha uzun hizmet saatleri</t>
+          <t>Extended service hours</t>
         </is>
       </c>
       <c r="AI253" t="n">
@@ -42020,7 +42020,7 @@
       </c>
       <c r="AK253" t="inlineStr">
         <is>
-          <t>Sosyoloji</t>
+          <t>Sociology</t>
         </is>
       </c>
     </row>
@@ -42037,7 +42037,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -42206,7 +42206,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -42358,7 +42358,7 @@
       </c>
       <c r="AK255" t="inlineStr">
         <is>
-          <t>Psikoloji</t>
+          <t>Psychology</t>
         </is>
       </c>
     </row>
@@ -42375,7 +42375,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -42545,7 +42545,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -42695,7 +42695,7 @@
       </c>
       <c r="AK257" t="inlineStr">
         <is>
-          <t>Biyoloji</t>
+          <t>Biology</t>
         </is>
       </c>
     </row>
@@ -42707,7 +42707,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Off-campus (farther away)</t>
+          <t>Off-campus (far from campus)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -42770,12 +42770,12 @@
       </c>
       <c r="Q258" t="inlineStr">
         <is>
-          <t>Late (19:00–23:00)</t>
+          <t>Late hours (19:00–23:00)</t>
         </is>
       </c>
       <c r="R258" t="inlineStr">
         <is>
-          <t>Very dissatisfied</t>
+          <t>Very Unsatisfied</t>
         </is>
       </c>
       <c r="S258" t="inlineStr">
@@ -42790,7 +42790,7 @@
       </c>
       <c r="U258" t="inlineStr">
         <is>
-          <t>Most convenient</t>
+          <t>Most convenient transportation method</t>
         </is>
       </c>
       <c r="V258" t="inlineStr">
@@ -42877,7 +42877,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -42915,7 +42915,7 @@
       </c>
       <c r="M259" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N259" t="inlineStr">
@@ -42930,7 +42930,7 @@
       </c>
       <c r="P259" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q259" t="inlineStr"/>
@@ -43017,7 +43017,7 @@
       <c r="AJ259" t="inlineStr"/>
       <c r="AK259" t="inlineStr">
         <is>
-          <t>Psikoloji</t>
+          <t>Psychology</t>
         </is>
       </c>
     </row>
@@ -43034,7 +43034,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -43072,7 +43072,7 @@
       </c>
       <c r="M260" t="inlineStr">
         <is>
-          <t>Haftada 1–2 kez</t>
+          <t>1–2 times a week</t>
         </is>
       </c>
       <c r="N260" t="inlineStr">
@@ -43087,7 +43087,7 @@
       </c>
       <c r="P260" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q260" t="inlineStr">
@@ -43199,7 +43199,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -43366,7 +43366,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -43526,7 +43526,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>East Dorms/Guesthouses (1st Dorm, 2nd Dorm, 16th Guesthouse, etc.)</t>
+          <t>East Dorms (1st Dorm, 2nd Dorm, 16th Guesthouse, etc.)</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -43696,7 +43696,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -43749,7 +43749,7 @@
       </c>
       <c r="P264" t="inlineStr">
         <is>
-          <t>Never use it</t>
+          <t>Never</t>
         </is>
       </c>
       <c r="Q264" t="inlineStr"/>
@@ -43853,7 +43853,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -43992,7 +43992,7 @@
       </c>
       <c r="AH265" t="inlineStr">
         <is>
-          <t>Daha uzun hizmet saatleri</t>
+          <t>Extended service hours</t>
         </is>
       </c>
       <c r="AI265" t="n">
@@ -44005,7 +44005,7 @@
       </c>
       <c r="AK265" t="inlineStr">
         <is>
-          <t>Psikoloji</t>
+          <t>Psychology</t>
         </is>
       </c>
     </row>
@@ -44022,7 +44022,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -44075,7 +44075,7 @@
       </c>
       <c r="P266" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q266" t="inlineStr">
@@ -44161,7 +44161,7 @@
       </c>
       <c r="AH266" t="inlineStr">
         <is>
-          <t>Daha uzun hizmet saatleri</t>
+          <t>Extended service hours</t>
         </is>
       </c>
       <c r="AI266" t="n">
@@ -44191,7 +44191,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -44229,7 +44229,7 @@
       </c>
       <c r="M267" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N267" t="inlineStr">
@@ -44356,7 +44356,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -44394,7 +44394,7 @@
       </c>
       <c r="M268" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N268" t="inlineStr">
@@ -44409,7 +44409,7 @@
       </c>
       <c r="P268" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q268" t="inlineStr">
@@ -44495,7 +44495,7 @@
       </c>
       <c r="AH268" t="inlineStr">
         <is>
-          <t>Daha uzun hizmet saatleri</t>
+          <t>Extended service hours</t>
         </is>
       </c>
       <c r="AI268" t="n">
@@ -44508,7 +44508,7 @@
       </c>
       <c r="AK268" t="inlineStr">
         <is>
-          <t>Felsefe</t>
+          <t>Philosophy</t>
         </is>
       </c>
     </row>
@@ -44525,7 +44525,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -44578,7 +44578,7 @@
       </c>
       <c r="P269" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q269" t="inlineStr">
@@ -44651,7 +44651,7 @@
       </c>
       <c r="AE269" t="inlineStr">
         <is>
-          <t>20 dakikadan fazla</t>
+          <t>More than 20 minutes</t>
         </is>
       </c>
       <c r="AF269" t="inlineStr">
@@ -44694,7 +44694,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -44859,7 +44859,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -44998,7 +44998,7 @@
       </c>
       <c r="AH271" t="inlineStr">
         <is>
-          <t>Daha uzun hizmet saatleri</t>
+          <t>Extended service hours</t>
         </is>
       </c>
       <c r="AI271" t="n">
@@ -45028,7 +45028,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -45066,7 +45066,7 @@
       </c>
       <c r="M272" t="inlineStr">
         <is>
-          <t>Haftada 1–2 kez</t>
+          <t>1–2 times a week</t>
         </is>
       </c>
       <c r="N272" t="inlineStr">
@@ -45167,7 +45167,7 @@
       </c>
       <c r="AH272" t="inlineStr">
         <is>
-          <t>Daha uzun hizmet saatleri</t>
+          <t>Extended service hours</t>
         </is>
       </c>
       <c r="AI272" t="n">
@@ -45176,7 +45176,7 @@
       <c r="AJ272" t="inlineStr"/>
       <c r="AK272" t="inlineStr">
         <is>
-          <t>Psikoloji</t>
+          <t>Psychology</t>
         </is>
       </c>
     </row>
@@ -45193,7 +45193,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -45231,7 +45231,7 @@
       </c>
       <c r="M273" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N273" t="inlineStr">
@@ -45246,7 +45246,7 @@
       </c>
       <c r="P273" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q273" t="inlineStr">
@@ -45319,7 +45319,7 @@
       </c>
       <c r="AE273" t="inlineStr">
         <is>
-          <t>5 dakikadan az</t>
+          <t>Less than 5 minutes</t>
         </is>
       </c>
       <c r="AF273" t="inlineStr">
@@ -45358,7 +45358,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -45411,7 +45411,7 @@
       </c>
       <c r="P274" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q274" t="inlineStr">
@@ -45497,7 +45497,7 @@
       </c>
       <c r="AH274" t="inlineStr">
         <is>
-          <t>Daha uzun hizmet saatleri</t>
+          <t>Extended service hours</t>
         </is>
       </c>
       <c r="AI274" t="n">
@@ -45527,7 +45527,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -45692,7 +45692,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -45745,7 +45745,7 @@
       </c>
       <c r="P276" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q276" t="inlineStr">
@@ -45831,7 +45831,7 @@
       </c>
       <c r="AH276" t="inlineStr">
         <is>
-          <t>Daha uzun hizmet saatleri</t>
+          <t>Extended service hours</t>
         </is>
       </c>
       <c r="AI276" t="n">
@@ -45857,7 +45857,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -46022,7 +46022,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -46187,7 +46187,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -46339,7 +46339,7 @@
       </c>
       <c r="AK279" t="inlineStr">
         <is>
-          <t>Sosyoloji</t>
+          <t>Sociology</t>
         </is>
       </c>
     </row>
@@ -46356,7 +46356,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -46517,7 +46517,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -46555,7 +46555,7 @@
       </c>
       <c r="M281" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N281" t="inlineStr">
@@ -46682,7 +46682,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -46808,7 +46808,7 @@
       </c>
       <c r="AE282" t="inlineStr">
         <is>
-          <t>20 dakikadan fazla</t>
+          <t>More than 20 minutes</t>
         </is>
       </c>
       <c r="AF282" t="inlineStr">
@@ -46846,7 +46846,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Off-campus (farther away)</t>
+          <t>Off-campus (far from campus)</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -46899,7 +46899,7 @@
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>Dissatisfied</t>
+          <t>Unsatisfied</t>
         </is>
       </c>
       <c r="P283" t="inlineStr">
@@ -46914,7 +46914,7 @@
       </c>
       <c r="R283" t="inlineStr">
         <is>
-          <t>Very dissatisfied</t>
+          <t>Very Unsatisfied</t>
         </is>
       </c>
       <c r="S283" t="inlineStr">
@@ -47020,7 +47020,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -47159,7 +47159,7 @@
       </c>
       <c r="AH284" t="inlineStr">
         <is>
-          <t>Daha uzun hizmet saatleri</t>
+          <t>Extended service hours</t>
         </is>
       </c>
       <c r="AI284" t="n">
@@ -47172,7 +47172,7 @@
       </c>
       <c r="AK284" t="inlineStr">
         <is>
-          <t>Biyoloji</t>
+          <t>Biology</t>
         </is>
       </c>
     </row>
@@ -47189,7 +47189,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -47354,7 +47354,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -47392,7 +47392,7 @@
       </c>
       <c r="M286" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N286" t="inlineStr">
@@ -47493,7 +47493,7 @@
       </c>
       <c r="AH286" t="inlineStr">
         <is>
-          <t>Daha uzun hizmet saatleri</t>
+          <t>Extended service hours</t>
         </is>
       </c>
       <c r="AI286" t="n">
@@ -47502,7 +47502,7 @@
       <c r="AJ286" t="inlineStr"/>
       <c r="AK286" t="inlineStr">
         <is>
-          <t>Psikoloji</t>
+          <t>Psychology</t>
         </is>
       </c>
     </row>
@@ -47519,7 +47519,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -47557,7 +47557,7 @@
       </c>
       <c r="M287" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N287" t="inlineStr">
@@ -47572,7 +47572,7 @@
       </c>
       <c r="P287" t="inlineStr">
         <is>
-          <t>Never use it</t>
+          <t>Never</t>
         </is>
       </c>
       <c r="Q287" t="inlineStr"/>
@@ -47676,7 +47676,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -47815,7 +47815,7 @@
       </c>
       <c r="AH288" t="inlineStr">
         <is>
-          <t>Daha uzun hizmet saatleri</t>
+          <t>Extended service hours</t>
         </is>
       </c>
       <c r="AI288" t="n">
@@ -47845,7 +47845,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -48010,7 +48010,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -48048,7 +48048,7 @@
       </c>
       <c r="M290" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N290" t="inlineStr">
@@ -48063,7 +48063,7 @@
       </c>
       <c r="P290" t="inlineStr">
         <is>
-          <t>Never use it</t>
+          <t>Never</t>
         </is>
       </c>
       <c r="Q290" t="inlineStr"/>
@@ -48171,7 +48171,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -48336,7 +48336,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -48374,7 +48374,7 @@
       </c>
       <c r="M292" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N292" t="inlineStr">
@@ -48499,7 +48499,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -48537,7 +48537,7 @@
       </c>
       <c r="M293" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N293" t="inlineStr">
@@ -48638,7 +48638,7 @@
       </c>
       <c r="AH293" t="inlineStr">
         <is>
-          <t>Daha uzun hizmet saatleri</t>
+          <t>Extended service hours</t>
         </is>
       </c>
       <c r="AI293" t="n">
@@ -48647,7 +48647,7 @@
       <c r="AJ293" t="inlineStr"/>
       <c r="AK293" t="inlineStr">
         <is>
-          <t>Psikoloji</t>
+          <t>Psychology</t>
         </is>
       </c>
     </row>
@@ -48664,7 +48664,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -48812,7 +48812,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>West Dorms/Guesthouses (Isa Demiray Dormitory, 19th Dorm, etc.)</t>
+          <t>West Dorms (Isa Demiray Student Dormitory, 19th Dorm, etc.)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -48865,7 +48865,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>Dissatisfied</t>
+          <t>Unsatisfied</t>
         </is>
       </c>
       <c r="P295" t="inlineStr">
@@ -48880,7 +48880,7 @@
       </c>
       <c r="R295" t="inlineStr">
         <is>
-          <t>Very dissatisfied</t>
+          <t>Very Unsatisfied</t>
         </is>
       </c>
       <c r="S295" t="inlineStr">
@@ -48895,7 +48895,7 @@
       </c>
       <c r="U295" t="inlineStr">
         <is>
-          <t>Most convenient</t>
+          <t>Most convenient transportation method</t>
         </is>
       </c>
       <c r="V295" t="inlineStr">
@@ -48982,7 +48982,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -49147,7 +49147,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -49316,7 +49316,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -49455,7 +49455,7 @@
       </c>
       <c r="AH298" t="inlineStr">
         <is>
-          <t>Daha uzun hizmet saatleri</t>
+          <t>Extended service hours</t>
         </is>
       </c>
       <c r="AI298" t="n">
@@ -49485,7 +49485,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -49633,7 +49633,7 @@
       <c r="AJ299" t="inlineStr"/>
       <c r="AK299" t="inlineStr">
         <is>
-          <t>Tarih</t>
+          <t>History</t>
         </is>
       </c>
     </row>
@@ -49650,7 +49650,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -49815,7 +49815,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -49980,7 +49980,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -50132,7 +50132,7 @@
       </c>
       <c r="AK302" t="inlineStr">
         <is>
-          <t>Matematik</t>
+          <t>Mathematics</t>
         </is>
       </c>
     </row>
@@ -50149,7 +50149,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -50310,7 +50310,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -50363,7 +50363,7 @@
       </c>
       <c r="P304" t="inlineStr">
         <is>
-          <t>Never use it</t>
+          <t>Never</t>
         </is>
       </c>
       <c r="Q304" t="inlineStr"/>
@@ -50459,7 +50459,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -50497,7 +50497,7 @@
       </c>
       <c r="M305" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N305" t="inlineStr">
@@ -50628,7 +50628,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -50797,7 +50797,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -50966,7 +50966,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -51135,7 +51135,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -51173,7 +51173,7 @@
       </c>
       <c r="M309" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N309" t="inlineStr">
@@ -51283,7 +51283,7 @@
       <c r="AJ309" t="inlineStr"/>
       <c r="AK309" t="inlineStr">
         <is>
-          <t>Psikoloji</t>
+          <t>Psychology</t>
         </is>
       </c>
     </row>
@@ -51300,7 +51300,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -51460,7 +51460,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>West Dorms/Guesthouses (Isa Demiray Dormitory, 19th Dorm, etc.)</t>
+          <t>West Dorms (Isa Demiray Student Dormitory, 19th Dorm, etc.)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -51513,7 +51513,7 @@
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>Very dissatisfied</t>
+          <t>Very Unsatisfied</t>
         </is>
       </c>
       <c r="P311" t="inlineStr">
@@ -51528,7 +51528,7 @@
       </c>
       <c r="R311" t="inlineStr">
         <is>
-          <t>Dissatisfied</t>
+          <t>Unsatisfied</t>
         </is>
       </c>
       <c r="S311" t="inlineStr">
@@ -51634,7 +51634,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -51803,7 +51803,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -51942,7 +51942,7 @@
       </c>
       <c r="AH313" t="inlineStr">
         <is>
-          <t>Daha uzun hizmet saatleri</t>
+          <t>Extended service hours</t>
         </is>
       </c>
       <c r="AI313" t="n">
@@ -51951,7 +51951,7 @@
       <c r="AJ313" t="inlineStr"/>
       <c r="AK313" t="inlineStr">
         <is>
-          <t>Kimya</t>
+          <t>Chemistry</t>
         </is>
       </c>
     </row>
@@ -51968,7 +51968,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -52021,7 +52021,7 @@
       </c>
       <c r="P314" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q314" t="inlineStr">
@@ -52133,7 +52133,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -52294,7 +52294,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -52463,7 +52463,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -52628,7 +52628,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -52691,7 +52691,7 @@
       </c>
       <c r="R318" t="inlineStr">
         <is>
-          <t>Highly Satisfied</t>
+          <t>Very Satisfied</t>
         </is>
       </c>
       <c r="S318" t="inlineStr">
@@ -52793,7 +52793,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -52831,14 +52831,14 @@
       </c>
       <c r="M319" t="inlineStr">
         <is>
-          <t>Haftada 1–2 kez</t>
+          <t>1–2 times a week</t>
         </is>
       </c>
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr"/>
       <c r="P319" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q319" t="inlineStr"/>
@@ -52942,7 +52942,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -53111,7 +53111,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -53280,7 +53280,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -53333,7 +53333,7 @@
       </c>
       <c r="P322" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q322" t="inlineStr">
@@ -53453,7 +53453,7 @@
       <c r="F323" t="inlineStr"/>
       <c r="G323" t="inlineStr">
         <is>
-          <t xml:space="preserve">Personel </t>
+          <t>Personel</t>
         </is>
       </c>
       <c r="H323" t="inlineStr">
@@ -53498,7 +53498,7 @@
       </c>
       <c r="P323" t="inlineStr">
         <is>
-          <t>Nadiren (ayda 1–2 kez)</t>
+          <t>Rarely (1–2 times a month)</t>
         </is>
       </c>
       <c r="Q323" t="inlineStr">
@@ -53610,7 +53610,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -53762,7 +53762,7 @@
       </c>
       <c r="AK324" t="inlineStr">
         <is>
-          <t>Fizik</t>
+          <t>Physics</t>
         </is>
       </c>
     </row>
@@ -53817,7 +53817,7 @@
       </c>
       <c r="M325" t="inlineStr">
         <is>
-          <t>Haftada 3–4 kez</t>
+          <t>3–4 times a week</t>
         </is>
       </c>
       <c r="N325" t="inlineStr">
@@ -53931,7 +53931,7 @@
       </c>
       <c r="AK325" t="inlineStr">
         <is>
-          <t>Psikoloji</t>
+          <t>Psychology</t>
         </is>
       </c>
     </row>
@@ -53948,7 +53948,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Undergraduate (Bachelor's)</t>
+          <t>Undergraduate (Bachelor’s)</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -54100,7 +54100,7 @@
       </c>
       <c r="AK326" t="inlineStr">
         <is>
-          <t>Kimya</t>
+          <t>Chemistry</t>
         </is>
       </c>
     </row>
